--- a/Internacional/Parametros.xlsx
+++ b/Internacional/Parametros.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Proyecciones/Internacional/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Documents\Tiara Silva\Proyecciones-S-OP\Internacional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093D0515-44D8-384D-B017-2302661ACCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246DB162-765F-4375-8E41-E950D1FE4F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{D059D8C6-2807-D449-9D92-9DC1313178D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D059D8C6-2807-D449-9D92-9DC1313178D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tiempo" sheetId="1" r:id="rId1"/>
+    <sheet name="Lead time" sheetId="1" r:id="rId1"/>
     <sheet name="Venta" sheetId="3" r:id="rId2"/>
+    <sheet name="Criterios" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" concurrentManualCount="8"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Tiempo de tránsito</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Oficina</t>
   </si>
@@ -93,25 +89,45 @@
     <t>Criterio n + 2</t>
   </si>
   <si>
-    <t>Tiempo arrivo Puerto Oficina</t>
-  </si>
-  <si>
     <t>Tipo de venta seleccionada</t>
   </si>
   <si>
     <t>Directa</t>
   </si>
   <si>
-    <t>Pablo Nieto</t>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Puerto Chile</t>
+  </si>
+  <si>
+    <t>Agua</t>
+  </si>
+  <si>
+    <t>Puerto Destino</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,8 +140,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +170,20 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -286,12 +331,186 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -302,27 +521,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares [0] 3" xfId="2" xr:uid="{B8A90921-2E36-4D30-8A52-9EB0BD1901AA}"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -340,7 +622,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -628,7 +910,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -636,48 +918,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAEE0AC-A22C-D142-BF90-0F0256C89132}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="41" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="13">
         <v>2</v>
@@ -691,119 +979,278 @@
       <c r="F2" s="2">
         <v>0.4</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1.7096242985822629</v>
+      </c>
+      <c r="D7" s="18">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18">
+        <v>34.12185483870968</v>
+      </c>
+      <c r="F7" s="18">
+        <v>7.5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>9.5</v>
+      </c>
+      <c r="H7" s="19">
+        <f>SUM(C7:G7)</f>
+        <v>59.831479137291943</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="20">
+        <v>7.1716200124743272</v>
+      </c>
+      <c r="D8" s="18">
+        <v>7</v>
+      </c>
+      <c r="E8" s="20">
+        <v>42.5</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5.1420118343195265</v>
+      </c>
+      <c r="G8" s="20">
+        <v>7.5</v>
+      </c>
+      <c r="H8" s="21">
+        <f>SUM(C8:G8)</f>
+        <v>69.313631846793854</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20">
+        <v>2.1855088411235015</v>
+      </c>
+      <c r="D9" s="18">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20">
+        <v>15.041530944625407</v>
+      </c>
+      <c r="F9" s="20">
+        <v>5.4496124031007751</v>
+      </c>
+      <c r="G9" s="20">
+        <v>10</v>
+      </c>
+      <c r="H9" s="21">
+        <f>SUM(C9:G9)</f>
+        <v>39.676652188849687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="20">
+        <v>4.7953843510197851</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7</v>
+      </c>
+      <c r="E10" s="20">
+        <v>44.199230302961368</v>
+      </c>
+      <c r="F10" s="20">
+        <v>5.5741092456127026</v>
+      </c>
+      <c r="G10" s="20">
+        <v>5.5</v>
+      </c>
+      <c r="H10" s="21">
+        <f>SUM(C10:G10)</f>
+        <v>67.068723899593863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="22">
+        <v>5.0102395291990982</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7</v>
+      </c>
+      <c r="E11" s="22">
+        <v>35.255201787459853</v>
+      </c>
+      <c r="F11" s="22">
+        <v>4.830303030303031</v>
+      </c>
+      <c r="G11" s="22">
+        <v>15</v>
+      </c>
+      <c r="H11" s="23">
+        <f>SUM(C11:G11)</f>
+        <v>67.095744346961979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="27" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="29">
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="D14" s="30">
+        <v>7</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34">
+        <f t="shared" ref="H14:H18" si="0">SUM(C14:D14)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3.0034758973294529</v>
+      </c>
+      <c r="D15" s="30">
+        <v>7</v>
+      </c>
+      <c r="E15" s="31"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34">
+        <f t="shared" si="0"/>
+        <v>10.003475897329453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="29">
+        <v>4.657346307107681</v>
+      </c>
+      <c r="D16" s="30">
+        <v>7</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34">
+        <f t="shared" si="0"/>
+        <v>11.65734630710768</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="29">
+        <v>4.2658490213417863</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34">
+        <f t="shared" si="0"/>
+        <v>4.2658490213417863</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="36">
+        <v>5.0000000000000027</v>
+      </c>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000027</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -815,18 +1262,147 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA9B73F-3FB7-489E-971B-CBC65E0FD9A6}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
